--- a/data/trans_dic/P04B1_2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_2_2023-Edad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.6403812753397998</v>
+        <v>0.6403812753397997</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.5674368307936604</v>
+        <v>0.5674368307936603</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.6060530113876698</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5678132408100667</v>
+        <v>0.5542130757587866</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.499543458829583</v>
+        <v>0.4992596748152018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5556554777087966</v>
+        <v>0.5552457160519308</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7115896353035128</v>
+        <v>0.7095656542577409</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6289094578702709</v>
+        <v>0.6402478354405932</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6526380029026809</v>
+        <v>0.6566263556864895</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6053777084152648</v>
+        <v>0.6053777084152647</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6602980447428599</v>
+        <v>0.66029804474286</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6335823003813547</v>
+        <v>0.6335823003813545</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5421763877984744</v>
+        <v>0.5467037463520219</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6150332921549535</v>
+        <v>0.6157588541255429</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5964124466458688</v>
+        <v>0.5955106301515072</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6589652353014069</v>
+        <v>0.6619036894484177</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7081458933254631</v>
+        <v>0.7056296625791124</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.66785069071047</v>
+        <v>0.6664160225236315</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.6407389846026808</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6487234844711735</v>
+        <v>0.6487234844711733</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6447467351046351</v>
+        <v>0.644746735104635</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5984665817683992</v>
+        <v>0.6006375190157349</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6142253198236273</v>
+        <v>0.6153298036990217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6162490590675868</v>
+        <v>0.6205990561461594</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6816776112964491</v>
+        <v>0.6799071277756046</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6774748166238257</v>
+        <v>0.6798325712565543</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6703410186834642</v>
+        <v>0.6698703284615327</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.6419422963428133</v>
+        <v>0.6419422963428132</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5984780315425029</v>
+        <v>0.598478031542503</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6196822717745796</v>
+        <v>0.6196822717745797</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6067085015018736</v>
+        <v>0.6051976338261629</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5698544463059141</v>
+        <v>0.5692086212727409</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5975508192314175</v>
+        <v>0.5982028709120503</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6816194302799286</v>
+        <v>0.6770189560666964</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6270632533320083</v>
+        <v>0.6271934760384327</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6430598018689867</v>
+        <v>0.6449596862425888</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.64632667886871</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6075559929657171</v>
+        <v>0.6075559929657173</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.6269432024784565</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6103924791776861</v>
+        <v>0.6070935709759886</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5755742953819611</v>
+        <v>0.5759293512501703</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.602527839735739</v>
+        <v>0.6031888576761757</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6786871317161803</v>
+        <v>0.6816839237267652</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6370539600149463</v>
+        <v>0.6361762380473466</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6534089263071926</v>
+        <v>0.6492693474049294</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.6215788754312116</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.6233740400575447</v>
+        <v>0.6233740400575446</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.6225115927727517</v>
+        <v>0.6225115927727518</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5829058712394593</v>
+        <v>0.5802639401257593</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5908305437323453</v>
+        <v>0.5896038333574647</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5944862863713881</v>
+        <v>0.5959427673770651</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.663655848837537</v>
+        <v>0.659133587010302</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6592147596237004</v>
+        <v>0.6577675963049079</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6467861480326916</v>
+        <v>0.6499460794284672</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.5862710925649967</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6334572550846351</v>
+        <v>0.6334572550846352</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.6145660163231145</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5393078774744668</v>
+        <v>0.5366885226787103</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5988899380324879</v>
+        <v>0.6021697205440587</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5869049201518027</v>
+        <v>0.5856061721914824</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6307344676646069</v>
+        <v>0.6277861016431272</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6648948270521197</v>
+        <v>0.6663030560935432</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6415245270014623</v>
+        <v>0.6394093214449562</v>
       </c>
     </row>
     <row r="25">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.6301327103648724</v>
+        <v>0.6301327103648725</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.6208978866876076</v>
+        <v>0.6208978866876077</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.6253827974710194</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6108554873863492</v>
+        <v>0.612080781362375</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6065364816727153</v>
+        <v>0.6052384492704475</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6137664964667463</v>
+        <v>0.6140143281902112</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6474212665950224</v>
+        <v>0.6476073703850245</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.635588635605546</v>
+        <v>0.6341591910174851</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6375886493269699</v>
+        <v>0.6370759993356844</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>231550</v>
+        <v>226004</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>181090</v>
+        <v>180988</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>428024</v>
+        <v>427709</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>290181</v>
+        <v>289356</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>227987</v>
+        <v>232098</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>502730</v>
+        <v>505803</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>257668</v>
+        <v>259819</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>308582</v>
+        <v>308947</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>582683</v>
+        <v>581802</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>313171</v>
+        <v>314568</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>355300</v>
+        <v>354038</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>652477</v>
+        <v>651075</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>369056</v>
+        <v>370395</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>381728</v>
+        <v>382414</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>763008</v>
+        <v>768393</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>420370</v>
+        <v>419278</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>421036</v>
+        <v>422501</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>829981</v>
+        <v>829399</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>425070</v>
+        <v>424012</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>419129</v>
+        <v>418654</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>858154</v>
+        <v>859091</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>477554</v>
+        <v>474331</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>461206</v>
+        <v>461302</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>923510</v>
+        <v>926239</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>371280</v>
+        <v>369274</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>350034</v>
+        <v>350250</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>732922</v>
+        <v>733726</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>412822</v>
+        <v>414644</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>387423</v>
+        <v>386889</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>794814</v>
+        <v>789779</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>236706</v>
+        <v>235634</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>259473</v>
+        <v>258934</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>502487</v>
+        <v>503718</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>269497</v>
+        <v>267661</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>289505</v>
+        <v>288869</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>546693</v>
+        <v>549364</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>167292</v>
+        <v>166480</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>278250</v>
+        <v>279773</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>454738</v>
+        <v>453732</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>195653</v>
+        <v>194738</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>308916</v>
+        <v>309570</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>497058</v>
+        <v>495419</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2153187</v>
+        <v>2157506</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2264290</v>
+        <v>2259444</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4454728</v>
+        <v>4456527</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2282076</v>
+        <v>2282732</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2372746</v>
+        <v>2367409</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>4627630</v>
+        <v>4623909</v>
       </c>
     </row>
     <row r="36">
